--- a/FastTest PlugIn - Game.xlsx
+++ b/FastTest PlugIn - Game.xlsx
@@ -24,22 +24,22 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Dificultad</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>Pregunta</t>
+    <t>Pregunta / Question</t>
   </si>
   <si>
-    <t>Respuesta 1</t>
+    <t>Respuesta / Answer 1</t>
   </si>
   <si>
-    <t>Respuesta 2</t>
+    <t>Respuesta / Answer 2</t>
   </si>
   <si>
-    <t>Respuesta 3</t>
+    <t>Respuesta / Answer 3</t>
+  </si>
+  <si>
+    <t>Nivel Level</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,6 +157,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +629,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,27 +647,27 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/FastTest PlugIn - Game.xlsx
+++ b/FastTest PlugIn - Game.xlsx
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -69,6 +69,11 @@
       <color rgb="FF005877"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF005877"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -135,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +149,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -154,15 +160,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,11 +631,11 @@
   <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,16 +647,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -667,8 +673,8 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -695,6 +701,110 @@
         <f t="shared" ref="F4" si="1">F3+1</f>
         <v>2</v>
       </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/FastTest PlugIn - Game.xlsx
+++ b/FastTest PlugIn - Game.xlsx
@@ -631,11 +631,11 @@
   <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -685,6 +685,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
     </row>
@@ -698,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4" si="1">F3+1</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
     </row>
@@ -798,14 +799,6 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -813,8 +806,9 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>